--- a/credential sheet.xlsx
+++ b/credential sheet.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="credential" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="boss" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Login" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Testcase</t>
   </si>
@@ -25,7 +27,46 @@
     <t>Email</t>
   </si>
   <si>
-    <t>TC-C10443</t>
+    <t>Co_App_Firstname</t>
+  </si>
+  <si>
+    <t>Co_App_Lastname</t>
+  </si>
+  <si>
+    <t>Co_App_Email</t>
+  </si>
+  <si>
+    <t>App_Description1</t>
+  </si>
+  <si>
+    <t>App_Asset_value_1</t>
+  </si>
+  <si>
+    <t>App_Description2</t>
+  </si>
+  <si>
+    <t>App_Asset_value_2</t>
+  </si>
+  <si>
+    <t>App_Description3</t>
+  </si>
+  <si>
+    <t>App_Asset_value_3</t>
+  </si>
+  <si>
+    <t>Co_App_Description1</t>
+  </si>
+  <si>
+    <t>Co_App_Asset_value1</t>
+  </si>
+  <si>
+    <t>Co_App_Description2</t>
+  </si>
+  <si>
+    <t>Co_App_Asset_value2</t>
+  </si>
+  <si>
+    <t>TC-C114</t>
   </si>
   <si>
     <t>BOSS</t>
@@ -35,13 +76,76 @@
   </si>
   <si>
     <t>bossautomation@gmail.com</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>AUTOMATION</t>
+  </si>
+  <si>
+    <t>automationboss@gmail.com</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Life Insurance</t>
+  </si>
+  <si>
+    <t>Household Goods</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>TC-1</t>
+  </si>
+  <si>
+    <t>Testcases\TC-2</t>
+  </si>
+  <si>
+    <t>TC-2</t>
+  </si>
+  <si>
+    <t>Testcases\TC-3</t>
+  </si>
+  <si>
+    <t>TC-3</t>
+  </si>
+  <si>
+    <t>Testcases\TC-4</t>
+  </si>
+  <si>
+    <t>TC-4</t>
+  </si>
+  <si>
+    <t>Testcases\TC-5</t>
+  </si>
+  <si>
+    <t>TC-5</t>
+  </si>
+  <si>
+    <t>Testcases\TC-6</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>autoboss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -53,13 +157,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,12 +182,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -84,6 +201,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -292,6 +417,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="4" max="4" width="25.5"/>
+    <col customWidth="1" min="5" max="5" width="15.75"/>
+    <col customWidth="1" min="6" max="6" width="17.0"/>
+    <col customWidth="1" min="7" max="7" width="25.38"/>
+    <col customWidth="1" min="8" max="8" width="15.13"/>
+    <col customWidth="1" min="9" max="9" width="16.88"/>
+    <col customWidth="1" min="10" max="10" width="18.63"/>
+    <col customWidth="1" min="11" max="11" width="15.88"/>
+    <col customWidth="1" min="12" max="12" width="19.25"/>
+    <col customWidth="1" min="13" max="13" width="23.25"/>
+    <col customWidth="1" min="14" max="14" width="21.25"/>
+    <col customWidth="1" min="15" max="15" width="19.38"/>
+    <col customWidth="1" min="16" max="16" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -307,19 +444,197 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1">
+        <v>40000.0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>50000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="25.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/credential sheet.xlsx
+++ b/credential sheet.xlsx
@@ -4,8 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="credential" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="boss" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Login" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="TestData1" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="boss" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Login" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>Testcase</t>
   </si>
@@ -54,19 +55,16 @@
     <t>App_Asset_value_3</t>
   </si>
   <si>
-    <t>Co_App_Description1</t>
-  </si>
-  <si>
-    <t>Co_App_Asset_value1</t>
-  </si>
-  <si>
-    <t>Co_App_Description2</t>
-  </si>
-  <si>
-    <t>Co_App_Asset_value2</t>
-  </si>
-  <si>
-    <t>TC-C114</t>
+    <t>App_Saving_Description</t>
+  </si>
+  <si>
+    <t>App_Saving_value</t>
+  </si>
+  <si>
+    <t>App_Saving_Downpaymet</t>
+  </si>
+  <si>
+    <t>TC-C129</t>
   </si>
   <si>
     <t>BOSS</t>
@@ -94,6 +92,135 @@
   </si>
   <si>
     <t>Household Goods</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Co_App_group2_F_name</t>
+  </si>
+  <si>
+    <t>Co_App_group2_L_name</t>
+  </si>
+  <si>
+    <t>Co_App_group2_Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>App_Downpay</t>
+  </si>
+  <si>
+    <t>Co_App_description</t>
+  </si>
+  <si>
+    <t>Co_App_Assetvalue</t>
+  </si>
+  <si>
+    <t>Co_App_Downpay</t>
+  </si>
+  <si>
+    <t>Co_App_Gift_assetvalue</t>
+  </si>
+  <si>
+    <t>Co_App_Gift_Downpay</t>
+  </si>
+  <si>
+    <t>App_lia_limit</t>
+  </si>
+  <si>
+    <t>App_lia_Balance</t>
+  </si>
+  <si>
+    <t>App_lia_Payment</t>
+  </si>
+  <si>
+    <t>App_lia_Description</t>
+  </si>
+  <si>
+    <t>App_Payoff</t>
+  </si>
+  <si>
+    <t>Co_App_Lia_Limit</t>
+  </si>
+  <si>
+    <t>Co_App_Lia_Balance</t>
+  </si>
+  <si>
+    <t>Co_App_Payment</t>
+  </si>
+  <si>
+    <t>Co_App_MaturityDate</t>
+  </si>
+  <si>
+    <t>Co_App_Lia_Description</t>
+  </si>
+  <si>
+    <t>Co_App_select_type_autolone</t>
+  </si>
+  <si>
+    <t>Co_App_Payoff</t>
+  </si>
+  <si>
+    <t>C10443</t>
+  </si>
+  <si>
+    <t>C316</t>
+  </si>
+  <si>
+    <t>2005 sha</t>
+  </si>
+  <si>
+    <t>C1097</t>
+  </si>
+  <si>
+    <t>RRSP</t>
+  </si>
+  <si>
+    <t>C128</t>
+  </si>
+  <si>
+    <t>C114</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>autoboss112@gmail.com</t>
+  </si>
+  <si>
+    <t>C129</t>
+  </si>
+  <si>
+    <t>C1102</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>From Proceed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auto Loan</t>
+  </si>
+  <si>
+    <t>Auto Loan</t>
+  </si>
+  <si>
+    <t>From Proceeds</t>
   </si>
   <si>
     <t>TestCases</t>
@@ -145,7 +272,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -160,6 +290,12 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,6 +327,21 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -209,6 +360,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -429,6 +584,7 @@
     <col customWidth="1" min="14" max="14" width="21.25"/>
     <col customWidth="1" min="15" max="15" width="19.38"/>
     <col customWidth="1" min="16" max="16" width="22.75"/>
+    <col customWidth="1" min="17" max="17" width="19.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,69 +636,568 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>30000.0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1">
         <v>100000.0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1">
         <v>40000.0</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1">
+        <v>20000.0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>30000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="26.13"/>
+    <col customWidth="1" min="7" max="10" width="25.75"/>
+    <col customWidth="1" min="11" max="14" width="15.63"/>
+    <col customWidth="1" min="15" max="17" width="15.5"/>
+    <col customWidth="1" min="18" max="18" width="15.0"/>
+    <col customWidth="1" min="19" max="19" width="19.63"/>
+    <col customWidth="1" min="20" max="20" width="18.88"/>
+    <col customWidth="1" min="21" max="21" width="21.5"/>
+    <col customWidth="1" min="22" max="22" width="16.13"/>
+    <col customWidth="1" min="23" max="24" width="19.38"/>
+    <col customWidth="1" min="25" max="25" width="21.25"/>
+    <col customWidth="1" min="26" max="26" width="19.38"/>
+    <col customWidth="1" min="30" max="30" width="14.38"/>
+    <col customWidth="1" min="37" max="37" width="29.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="26.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="O4" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>30000.0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>10000.0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="X5" s="7">
+        <v>30000.0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>10000.0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100000.0</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q6" s="1">
+        <v>40000.0</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1">
+        <v>30000.0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="1">
         <v>100000.0</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>40000.0</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1">
-        <v>50000.0</v>
-      </c>
+      <c r="T7" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="U7" s="7">
+        <v>30000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="AA8" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>7000.0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>44663.0</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="K15" s="4"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -557,50 +1212,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -611,7 +1266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -623,18 +1278,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/credential sheet.xlsx
+++ b/credential sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Testcase</t>
   </si>
@@ -136,6 +136,21 @@
     <t>Co_App_Gift_Downpay</t>
   </si>
   <si>
+    <t>Co_App_group2_Description1</t>
+  </si>
+  <si>
+    <t>Co_App_group2_Assetvalue1</t>
+  </si>
+  <si>
+    <t>Co_App_group2_assettype</t>
+  </si>
+  <si>
+    <t>Co_App_group2_Description2</t>
+  </si>
+  <si>
+    <t>Co_App_group_Asset_value2</t>
+  </si>
+  <si>
     <t>App_lia_limit</t>
   </si>
   <si>
@@ -200,6 +215,9 @@
   </si>
   <si>
     <t>autoboss112@gmail.com</t>
+  </si>
+  <si>
+    <t>Hou</t>
   </si>
   <si>
     <t>C129</t>
@@ -717,8 +735,12 @@
     <col customWidth="1" min="23" max="24" width="19.38"/>
     <col customWidth="1" min="25" max="25" width="21.25"/>
     <col customWidth="1" min="26" max="26" width="19.38"/>
-    <col customWidth="1" min="30" max="30" width="14.38"/>
-    <col customWidth="1" min="37" max="37" width="29.75"/>
+    <col customWidth="1" min="27" max="27" width="23.63"/>
+    <col customWidth="1" min="28" max="28" width="23.25"/>
+    <col customWidth="1" min="29" max="29" width="22.63"/>
+    <col customWidth="1" min="30" max="31" width="24.75"/>
+    <col customWidth="1" min="35" max="35" width="14.38"/>
+    <col customWidth="1" min="42" max="42" width="29.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -800,25 +822,25 @@
       <c r="Z1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -827,19 +849,34 @@
       <c r="AI1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
@@ -850,11 +887,11 @@
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="6"/>
+      <c r="AN2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
@@ -866,7 +903,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -878,7 +915,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
@@ -913,7 +950,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W4" s="7">
         <v>20000.0</v>
@@ -927,10 +964,15 @@
       <c r="Z4" s="7">
         <v>20000.0</v>
       </c>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -969,7 +1011,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W5" s="7">
         <v>20000.0</v>
@@ -983,10 +1025,12 @@
       <c r="Z5" s="1">
         <v>20000.0</v>
       </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -1007,13 +1051,13 @@
         <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="1" t="s">
@@ -1042,10 +1086,23 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
+      <c r="AA6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>50000.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -1098,7 +1155,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -1121,41 +1178,41 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="AA8" s="1">
+      <c r="AF8" s="1">
         <v>5000.0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AG8" s="1">
         <v>500.0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>7000.0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>700.0</v>
       </c>
       <c r="AH8" s="1">
         <v>1000.0</v>
       </c>
-      <c r="AI8" s="6">
+      <c r="AI8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>7000.0</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>700.0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1000.0</v>
+      </c>
+      <c r="AN8" s="6">
         <v>44663.0</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>68</v>
+      <c r="AO8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -1163,6 +1220,11 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
     </row>
     <row r="14">
       <c r="K14" s="4"/>
@@ -1212,50 +1274,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1278,18 +1340,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
